--- a/data/pca/factorExposure/factorExposure_2014-08-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-08-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.004504185719159569</v>
+        <v>0.01881368393381885</v>
       </c>
       <c r="C2">
-        <v>0.1182566085105258</v>
+        <v>0.06996662566254769</v>
       </c>
       <c r="D2">
-        <v>-0.03414905859214753</v>
+        <v>0.03256832604915336</v>
       </c>
       <c r="E2">
-        <v>0.2238665615189717</v>
+        <v>0.0372333025779262</v>
       </c>
       <c r="F2">
-        <v>0.03900491448662199</v>
+        <v>-0.1545737004635061</v>
       </c>
       <c r="G2">
-        <v>-0.0471500505804754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.003165766090599021</v>
+      </c>
+      <c r="H2">
+        <v>-0.05718985236336084</v>
+      </c>
+      <c r="I2">
+        <v>-0.03333847047796928</v>
+      </c>
+      <c r="J2">
+        <v>-0.02776455781804394</v>
+      </c>
+      <c r="K2">
+        <v>0.1650755699561317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.01691728156072672</v>
+        <v>0.01851787683668811</v>
       </c>
       <c r="C4">
-        <v>0.1647628193301842</v>
+        <v>0.1455856329272926</v>
       </c>
       <c r="D4">
-        <v>-0.03786693970538309</v>
+        <v>0.06485246667320656</v>
       </c>
       <c r="E4">
-        <v>0.04571676202019984</v>
+        <v>-0.03789966791885102</v>
       </c>
       <c r="F4">
-        <v>-0.06378704034654775</v>
+        <v>-0.05747417183564074</v>
       </c>
       <c r="G4">
-        <v>0.02768929140026468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03469469849569372</v>
+      </c>
+      <c r="H4">
+        <v>-0.05611261122890113</v>
+      </c>
+      <c r="I4">
+        <v>-0.08710059670541984</v>
+      </c>
+      <c r="J4">
+        <v>-0.007254355440834657</v>
+      </c>
+      <c r="K4">
+        <v>0.1738250715636874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.02014698829552736</v>
+        <v>0.03766320840968169</v>
       </c>
       <c r="C6">
-        <v>0.08087641851573894</v>
+        <v>0.08579499426461819</v>
       </c>
       <c r="D6">
-        <v>-0.0569104757301177</v>
+        <v>0.02642592885208367</v>
       </c>
       <c r="E6">
-        <v>0.05310606253160882</v>
+        <v>0.03553944968655286</v>
       </c>
       <c r="F6">
-        <v>-0.006879554028828208</v>
+        <v>-0.03475008853015989</v>
       </c>
       <c r="G6">
-        <v>0.04767773263927304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.0464471720592531</v>
+      </c>
+      <c r="H6">
+        <v>-0.03835026207040696</v>
+      </c>
+      <c r="I6">
+        <v>0.019800927333151</v>
+      </c>
+      <c r="J6">
+        <v>0.08147630218249885</v>
+      </c>
+      <c r="K6">
+        <v>0.07415586426257825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.0007074413801101096</v>
+        <v>0.01806165174775756</v>
       </c>
       <c r="C7">
-        <v>0.06366925130942651</v>
+        <v>0.06994827967847175</v>
       </c>
       <c r="D7">
-        <v>-0.03667090232743621</v>
+        <v>0.03002864461851659</v>
       </c>
       <c r="E7">
-        <v>0.01021518151376362</v>
+        <v>-0.01796830486205251</v>
       </c>
       <c r="F7">
-        <v>-0.02648187431194425</v>
+        <v>0.002510376702068311</v>
       </c>
       <c r="G7">
-        <v>0.02849630016373548</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03734196463479805</v>
+      </c>
+      <c r="H7">
+        <v>-0.07798235058289557</v>
+      </c>
+      <c r="I7">
+        <v>-0.0548847834438915</v>
+      </c>
+      <c r="J7">
+        <v>0.002365384752529719</v>
+      </c>
+      <c r="K7">
+        <v>0.02618672584724622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01199520960826136</v>
+        <v>0.001169465863126293</v>
       </c>
       <c r="C8">
-        <v>0.06748546462657773</v>
+        <v>0.06074444106639389</v>
       </c>
       <c r="D8">
-        <v>-0.04467618169313277</v>
+        <v>0.04565205697123326</v>
       </c>
       <c r="E8">
-        <v>0.06100505313725661</v>
+        <v>0.0005483787151367315</v>
       </c>
       <c r="F8">
-        <v>-0.01438108938110944</v>
+        <v>-0.06031371649308791</v>
       </c>
       <c r="G8">
-        <v>-0.01885310075758759</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.01815596365345293</v>
+      </c>
+      <c r="H8">
+        <v>-0.04927542120311647</v>
+      </c>
+      <c r="I8">
+        <v>-0.03439433498616076</v>
+      </c>
+      <c r="J8">
+        <v>0.01154235784247372</v>
+      </c>
+      <c r="K8">
+        <v>-0.01761117408086728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.008439577090480453</v>
+        <v>0.01368197945392058</v>
       </c>
       <c r="C9">
-        <v>0.1174326779937507</v>
+        <v>0.1028527403425904</v>
       </c>
       <c r="D9">
-        <v>-0.04908322157958141</v>
+        <v>0.04093830500422982</v>
       </c>
       <c r="E9">
-        <v>0.008876259813898694</v>
+        <v>-0.01152882173519966</v>
       </c>
       <c r="F9">
-        <v>-0.006276725850043803</v>
+        <v>-0.03318919466036845</v>
       </c>
       <c r="G9">
-        <v>0.03401249543789355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.01963925104947459</v>
+      </c>
+      <c r="H9">
+        <v>-0.06263600680067358</v>
+      </c>
+      <c r="I9">
+        <v>-0.09229181279287584</v>
+      </c>
+      <c r="J9">
+        <v>0.003165221704114643</v>
+      </c>
+      <c r="K9">
+        <v>0.08301133628838436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2730333115611097</v>
+        <v>0.2497200278709671</v>
       </c>
       <c r="C10">
-        <v>-0.07145716463509613</v>
+        <v>-0.0913117431791953</v>
       </c>
       <c r="D10">
-        <v>0.02001268505513667</v>
+        <v>-0.005779019606378367</v>
       </c>
       <c r="E10">
-        <v>-0.02622183791351921</v>
+        <v>0.01301474208024211</v>
       </c>
       <c r="F10">
-        <v>-0.009493985093865259</v>
+        <v>0.01051513241159516</v>
       </c>
       <c r="G10">
-        <v>0.01216323795134826</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.0260743511465078</v>
+      </c>
+      <c r="H10">
+        <v>-0.02865070294736187</v>
+      </c>
+      <c r="I10">
+        <v>-0.01495956472219671</v>
+      </c>
+      <c r="J10">
+        <v>-0.1362795424579872</v>
+      </c>
+      <c r="K10">
+        <v>-0.08476802823284235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.004284392098003232</v>
+        <v>0.01672802972814324</v>
       </c>
       <c r="C11">
-        <v>0.06528497108631655</v>
+        <v>0.08185554395053801</v>
       </c>
       <c r="D11">
-        <v>-0.02939421587842316</v>
+        <v>0.03760725920738706</v>
       </c>
       <c r="E11">
-        <v>-0.02596662183501609</v>
+        <v>-0.004933506701105727</v>
       </c>
       <c r="F11">
-        <v>-0.005153588236323668</v>
+        <v>0.01168264725290982</v>
       </c>
       <c r="G11">
-        <v>0.039650556880691</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.0121222166753018</v>
+      </c>
+      <c r="H11">
+        <v>-0.0194868979257313</v>
+      </c>
+      <c r="I11">
+        <v>-0.02529606938266648</v>
+      </c>
+      <c r="J11">
+        <v>0.02970653558651298</v>
+      </c>
+      <c r="K11">
+        <v>-0.004416963430076573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.00180735998688567</v>
+        <v>0.01570524283470872</v>
       </c>
       <c r="C12">
-        <v>0.04397987409979587</v>
+        <v>0.05425218387387075</v>
       </c>
       <c r="D12">
-        <v>-0.03586409019370874</v>
+        <v>0.02531215479454097</v>
       </c>
       <c r="E12">
-        <v>-0.02075948228983119</v>
+        <v>0.01856365810257209</v>
       </c>
       <c r="F12">
-        <v>0.02586278540050125</v>
+        <v>0.009129868365805427</v>
       </c>
       <c r="G12">
-        <v>0.04821577190193319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.02816155012359045</v>
+      </c>
+      <c r="H12">
+        <v>-0.01184713561167037</v>
+      </c>
+      <c r="I12">
+        <v>-0.02616413351651142</v>
+      </c>
+      <c r="J12">
+        <v>0.0188021409194537</v>
+      </c>
+      <c r="K12">
+        <v>0.00313422362672896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.008400198101217527</v>
+        <v>0.003751025701411006</v>
       </c>
       <c r="C13">
-        <v>0.123130446584914</v>
+        <v>0.1155132497287475</v>
       </c>
       <c r="D13">
-        <v>-0.08234357856373478</v>
+        <v>0.041410990699059</v>
       </c>
       <c r="E13">
-        <v>0.04041644483320909</v>
+        <v>0.09936976026997563</v>
       </c>
       <c r="F13">
-        <v>0.07081483121726656</v>
+        <v>-0.1226893797629066</v>
       </c>
       <c r="G13">
-        <v>0.1535173381337238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1443162293266311</v>
+      </c>
+      <c r="H13">
+        <v>-0.133870636747325</v>
+      </c>
+      <c r="I13">
+        <v>-0.01055596057852708</v>
+      </c>
+      <c r="J13">
+        <v>-0.211779888590945</v>
+      </c>
+      <c r="K13">
+        <v>-0.2309136837518544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.007497053853544913</v>
+        <v>0.01982401531941259</v>
       </c>
       <c r="C14">
-        <v>0.07267628964360121</v>
+        <v>0.07410651557968131</v>
       </c>
       <c r="D14">
-        <v>-0.04258626544683447</v>
+        <v>0.047793680946766</v>
       </c>
       <c r="E14">
-        <v>0.02104010370556276</v>
+        <v>0.04215451733127334</v>
       </c>
       <c r="F14">
-        <v>0.03311506060602429</v>
+        <v>-0.008507535394371924</v>
       </c>
       <c r="G14">
-        <v>0.07991399212760027</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.1042066241530216</v>
+      </c>
+      <c r="H14">
+        <v>-0.1673102648385147</v>
+      </c>
+      <c r="I14">
+        <v>-0.09868285817741497</v>
+      </c>
+      <c r="J14">
+        <v>0.0143163003850294</v>
+      </c>
+      <c r="K14">
+        <v>-0.1251460234419626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.003864091501200805</v>
+        <v>0.004701545400105056</v>
       </c>
       <c r="C15">
-        <v>0.09615593784386846</v>
+        <v>0.08190736528793724</v>
       </c>
       <c r="D15">
-        <v>-0.05176114615161746</v>
+        <v>0.03450805732157883</v>
       </c>
       <c r="E15">
-        <v>0.03057216067317127</v>
+        <v>-0.01116857029200632</v>
       </c>
       <c r="F15">
-        <v>-0.006386520136769159</v>
+        <v>-0.02596403530734778</v>
       </c>
       <c r="G15">
-        <v>0.03276658865586055</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.03264892687909154</v>
+      </c>
+      <c r="H15">
+        <v>-0.07252793285095999</v>
+      </c>
+      <c r="I15">
+        <v>-0.0587980509535042</v>
+      </c>
+      <c r="J15">
+        <v>0.02420430572856306</v>
+      </c>
+      <c r="K15">
+        <v>-0.07335976274072717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.007782840503026488</v>
+        <v>0.01573859125976063</v>
       </c>
       <c r="C16">
-        <v>0.05538367264818577</v>
+        <v>0.06119586377024501</v>
       </c>
       <c r="D16">
-        <v>-0.02696361194788828</v>
+        <v>0.0268012714633667</v>
       </c>
       <c r="E16">
-        <v>-0.01743942498136736</v>
+        <v>-0.002174774389764779</v>
       </c>
       <c r="F16">
-        <v>0.009296323354342023</v>
+        <v>0.007418045070198276</v>
       </c>
       <c r="G16">
-        <v>0.02255965569788513</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.009102733308763459</v>
+      </c>
+      <c r="H16">
+        <v>-0.01208184707969183</v>
+      </c>
+      <c r="I16">
+        <v>-0.01896350387837652</v>
+      </c>
+      <c r="J16">
+        <v>0.02109109862216175</v>
+      </c>
+      <c r="K16">
+        <v>0.008613411859065903</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.009562915882214843</v>
+        <v>0.01556949867959313</v>
       </c>
       <c r="C20">
-        <v>0.08555052905622387</v>
+        <v>0.08523632855187624</v>
       </c>
       <c r="D20">
-        <v>-0.03945184782819813</v>
+        <v>0.02581158901440314</v>
       </c>
       <c r="E20">
-        <v>-0.03312508028445694</v>
+        <v>-0.02215144995962629</v>
       </c>
       <c r="F20">
-        <v>0.006458890120297161</v>
+        <v>0.01260393410354931</v>
       </c>
       <c r="G20">
-        <v>0.09277884540689094</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04422665464353281</v>
+      </c>
+      <c r="H20">
+        <v>-0.05900748084845104</v>
+      </c>
+      <c r="I20">
+        <v>-0.03488770348578577</v>
+      </c>
+      <c r="J20">
+        <v>0.02183816660585029</v>
+      </c>
+      <c r="K20">
+        <v>0.005024027991674644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.0001862774372774582</v>
+        <v>0.01261950008088598</v>
       </c>
       <c r="C21">
-        <v>0.09023677442688417</v>
+        <v>0.06916227038228941</v>
       </c>
       <c r="D21">
-        <v>0.009059516483143492</v>
+        <v>0.01761545566978547</v>
       </c>
       <c r="E21">
-        <v>0.02989394893659456</v>
+        <v>0.0864452914752841</v>
       </c>
       <c r="F21">
-        <v>0.0562683287218584</v>
+        <v>-0.03060517349654097</v>
       </c>
       <c r="G21">
-        <v>0.01254502678495476</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.02853058212910432</v>
+      </c>
+      <c r="H21">
+        <v>-0.1379110819469841</v>
+      </c>
+      <c r="I21">
+        <v>-0.05214628487797077</v>
+      </c>
+      <c r="J21">
+        <v>-0.01944623215713431</v>
+      </c>
+      <c r="K21">
+        <v>-0.02638788514142408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.01305397235524788</v>
+        <v>0.005122384361534528</v>
       </c>
       <c r="C22">
-        <v>0.245342143273917</v>
+        <v>0.1729484337034367</v>
       </c>
       <c r="D22">
-        <v>0.07370767621687709</v>
+        <v>0.01863183939590981</v>
       </c>
       <c r="E22">
-        <v>0.3162792631345707</v>
+        <v>-0.1560048374943429</v>
       </c>
       <c r="F22">
-        <v>-0.3168316591786243</v>
+        <v>-0.5113988433206913</v>
       </c>
       <c r="G22">
-        <v>-0.02205860116944985</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.01648988226346322</v>
+      </c>
+      <c r="H22">
+        <v>0.2479150657624841</v>
+      </c>
+      <c r="I22">
+        <v>0.1946812009969645</v>
+      </c>
+      <c r="J22">
+        <v>0.009878945986081565</v>
+      </c>
+      <c r="K22">
+        <v>-0.1731181633554688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.01441285979757933</v>
+        <v>0.01031583438224341</v>
       </c>
       <c r="C23">
-        <v>0.2484973949165989</v>
+        <v>0.1766533129970267</v>
       </c>
       <c r="D23">
-        <v>0.07854215005884783</v>
+        <v>0.01838226698275958</v>
       </c>
       <c r="E23">
-        <v>0.3118145772866112</v>
+        <v>-0.1497544989487296</v>
       </c>
       <c r="F23">
-        <v>-0.3120327104335633</v>
+        <v>-0.4970286852775035</v>
       </c>
       <c r="G23">
-        <v>-0.02248477986313447</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.01414524741875802</v>
+      </c>
+      <c r="H23">
+        <v>0.2343860393656773</v>
+      </c>
+      <c r="I23">
+        <v>0.175404447459421</v>
+      </c>
+      <c r="J23">
+        <v>0.01400244804287665</v>
+      </c>
+      <c r="K23">
+        <v>-0.1611185498152409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.002031797770061215</v>
+        <v>0.0162429109260096</v>
       </c>
       <c r="C24">
-        <v>0.05325464527844745</v>
+        <v>0.06478223604438837</v>
       </c>
       <c r="D24">
-        <v>-0.04059029528396848</v>
+        <v>0.03953292206915621</v>
       </c>
       <c r="E24">
-        <v>-0.021309316967914</v>
+        <v>-0.003972223921821746</v>
       </c>
       <c r="F24">
-        <v>0.001628635310195652</v>
+        <v>0.007306286024020477</v>
       </c>
       <c r="G24">
-        <v>0.0502001087715585</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02757404098970238</v>
+      </c>
+      <c r="H24">
+        <v>-0.02675753481147241</v>
+      </c>
+      <c r="I24">
+        <v>-0.02896831462113085</v>
+      </c>
+      <c r="J24">
+        <v>0.02381849357373162</v>
+      </c>
+      <c r="K24">
+        <v>0.002309176602072001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.003748415626075648</v>
+        <v>0.02030964766286025</v>
       </c>
       <c r="C25">
-        <v>0.06233592418216691</v>
+        <v>0.06805799888756715</v>
       </c>
       <c r="D25">
-        <v>-0.02174521396331289</v>
+        <v>0.03277600405399125</v>
       </c>
       <c r="E25">
-        <v>-0.02507172536675274</v>
+        <v>-0.005008743799108689</v>
       </c>
       <c r="F25">
-        <v>0.004929376502496316</v>
+        <v>0.005517955390999726</v>
       </c>
       <c r="G25">
-        <v>0.05229944087375397</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02162272269745824</v>
+      </c>
+      <c r="H25">
+        <v>-0.01898583408095506</v>
+      </c>
+      <c r="I25">
+        <v>-0.03228838658587337</v>
+      </c>
+      <c r="J25">
+        <v>0.009293583929043942</v>
+      </c>
+      <c r="K25">
+        <v>-0.01301655259000652</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.0003566782909078472</v>
+        <v>0.02258914202039373</v>
       </c>
       <c r="C26">
-        <v>0.04948182451695834</v>
+        <v>0.05659967998590062</v>
       </c>
       <c r="D26">
-        <v>-0.0686552222832252</v>
+        <v>0.06225391224360761</v>
       </c>
       <c r="E26">
-        <v>-0.0004908769325336554</v>
+        <v>-0.00616501775529198</v>
       </c>
       <c r="F26">
-        <v>0.03765341235110355</v>
+        <v>0.01446442142973023</v>
       </c>
       <c r="G26">
-        <v>0.03378897951400402</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.00862548020015632</v>
+      </c>
+      <c r="H26">
+        <v>-0.08021665567683799</v>
+      </c>
+      <c r="I26">
+        <v>-0.07577486607084015</v>
+      </c>
+      <c r="J26">
+        <v>0.03799412993083159</v>
+      </c>
+      <c r="K26">
+        <v>0.1273794056407384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3652709656582245</v>
+        <v>0.3126762688502681</v>
       </c>
       <c r="C28">
-        <v>-0.08090090881153156</v>
+        <v>-0.1081231823982026</v>
       </c>
       <c r="D28">
-        <v>0.01354281553787493</v>
+        <v>-0.03335681241636858</v>
       </c>
       <c r="E28">
-        <v>-0.04975289432120047</v>
+        <v>0.001639689165605331</v>
       </c>
       <c r="F28">
-        <v>0.05357093350897014</v>
+        <v>-0.05207095242073268</v>
       </c>
       <c r="G28">
-        <v>-0.08469218623164755</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.10716917063889</v>
+      </c>
+      <c r="H28">
+        <v>-0.07374960934510522</v>
+      </c>
+      <c r="I28">
+        <v>-0.01303909794491765</v>
+      </c>
+      <c r="J28">
+        <v>-0.2106598706729104</v>
+      </c>
+      <c r="K28">
+        <v>0.02202088038327589</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.007518382368435585</v>
+        <v>0.01541769103593594</v>
       </c>
       <c r="C29">
-        <v>0.0785397356079592</v>
+        <v>0.08305713143321687</v>
       </c>
       <c r="D29">
-        <v>-0.0484631923513798</v>
+        <v>0.0510038219082896</v>
       </c>
       <c r="E29">
-        <v>0.005881769973918535</v>
+        <v>0.04578712012603225</v>
       </c>
       <c r="F29">
-        <v>0.03709331964606689</v>
+        <v>-0.01174752384737794</v>
       </c>
       <c r="G29">
-        <v>0.1147151205812089</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1518818556429773</v>
+      </c>
+      <c r="H29">
+        <v>-0.2265359300095035</v>
+      </c>
+      <c r="I29">
+        <v>-0.1598037490597922</v>
+      </c>
+      <c r="J29">
+        <v>-0.005452414199373839</v>
+      </c>
+      <c r="K29">
+        <v>-0.1945105116841615</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.01829076086968832</v>
+        <v>0.03149710443137686</v>
       </c>
       <c r="C30">
-        <v>0.1682036576575948</v>
+        <v>0.1430993691288528</v>
       </c>
       <c r="D30">
-        <v>-0.06846024419071771</v>
+        <v>0.0546232919443772</v>
       </c>
       <c r="E30">
-        <v>0.02352596838876628</v>
+        <v>-0.02143431735825417</v>
       </c>
       <c r="F30">
-        <v>-0.0482279198738317</v>
+        <v>-0.05332718873436475</v>
       </c>
       <c r="G30">
-        <v>0.01966810872368385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01361531704399501</v>
+      </c>
+      <c r="H30">
+        <v>-0.03615591462849006</v>
+      </c>
+      <c r="I30">
+        <v>-0.01624786070457859</v>
+      </c>
+      <c r="J30">
+        <v>0.05686907197725414</v>
+      </c>
+      <c r="K30">
+        <v>0.09255274022748652</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.00335523629060019</v>
+        <v>0.01438820011830126</v>
       </c>
       <c r="C31">
-        <v>0.05383424485668904</v>
+        <v>0.07924470484514751</v>
       </c>
       <c r="D31">
-        <v>-0.03460114853415554</v>
+        <v>0.04119221901999544</v>
       </c>
       <c r="E31">
-        <v>-0.02523342386578963</v>
+        <v>0.0007625100051231999</v>
       </c>
       <c r="F31">
-        <v>0.01452448742548364</v>
+        <v>-0.001693593736886185</v>
       </c>
       <c r="G31">
-        <v>0.01610050533073064</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02121464028746269</v>
+      </c>
+      <c r="H31">
+        <v>-0.02608543024039317</v>
+      </c>
+      <c r="I31">
+        <v>-0.03424060326477083</v>
+      </c>
+      <c r="J31">
+        <v>0.01047174582788673</v>
+      </c>
+      <c r="K31">
+        <v>-0.01737780026479258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.01639269083882424</v>
+        <v>0.02139845046595439</v>
       </c>
       <c r="C32">
-        <v>0.07911845077095352</v>
+        <v>0.05147951643528254</v>
       </c>
       <c r="D32">
-        <v>-0.007901217319301263</v>
+        <v>0.02451648858084643</v>
       </c>
       <c r="E32">
-        <v>0.1413127336933844</v>
+        <v>0.04935970943672113</v>
       </c>
       <c r="F32">
-        <v>-0.0006512567941938909</v>
+        <v>-0.1048431132132128</v>
       </c>
       <c r="G32">
-        <v>0.08830532882823292</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.08998611853466676</v>
+      </c>
+      <c r="H32">
+        <v>-0.1486309046561211</v>
+      </c>
+      <c r="I32">
+        <v>-0.05594337646287546</v>
+      </c>
+      <c r="J32">
+        <v>-0.2673521061205077</v>
+      </c>
+      <c r="K32">
+        <v>-0.04492823450083695</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.009911009022443285</v>
+        <v>0.01702348961923529</v>
       </c>
       <c r="C33">
-        <v>0.09007760267517169</v>
+        <v>0.1040311155464576</v>
       </c>
       <c r="D33">
-        <v>-0.06473305869027979</v>
+        <v>0.05155297633895961</v>
       </c>
       <c r="E33">
-        <v>0.003159245676495078</v>
+        <v>-0.01005642863009417</v>
       </c>
       <c r="F33">
-        <v>0.01445799758156727</v>
+        <v>-0.01624416751728981</v>
       </c>
       <c r="G33">
-        <v>0.04502936694786467</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03342754962031572</v>
+      </c>
+      <c r="H33">
+        <v>-0.04561841720873168</v>
+      </c>
+      <c r="I33">
+        <v>-0.02729975166845626</v>
+      </c>
+      <c r="J33">
+        <v>-0.01655967763913976</v>
+      </c>
+      <c r="K33">
+        <v>0.005945339323661022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.001890134305029786</v>
+        <v>0.01682863109625661</v>
       </c>
       <c r="C34">
-        <v>0.04677717469923449</v>
+        <v>0.04782372227981739</v>
       </c>
       <c r="D34">
-        <v>-0.01971844372061511</v>
+        <v>0.01989087592252737</v>
       </c>
       <c r="E34">
-        <v>-0.007788639798211276</v>
+        <v>0.005660231004685112</v>
       </c>
       <c r="F34">
-        <v>0.02333012410926644</v>
+        <v>0.008849052218399947</v>
       </c>
       <c r="G34">
-        <v>0.03069436716126533</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01489805697838999</v>
+      </c>
+      <c r="H34">
+        <v>0.002449093377392751</v>
+      </c>
+      <c r="I34">
+        <v>-0.01419423520394491</v>
+      </c>
+      <c r="J34">
+        <v>0.01800002504514444</v>
+      </c>
+      <c r="K34">
+        <v>-7.759933833263209e-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.002691222446029885</v>
+        <v>0.0100775890113057</v>
       </c>
       <c r="C35">
-        <v>0.02730211885566557</v>
+        <v>0.04519315340337998</v>
       </c>
       <c r="D35">
-        <v>-0.008393525792632667</v>
+        <v>0.02185628307118775</v>
       </c>
       <c r="E35">
-        <v>0.002135880248333426</v>
+        <v>0.009845683084585322</v>
       </c>
       <c r="F35">
-        <v>0.01002412135240671</v>
+        <v>-0.00876737754633203</v>
       </c>
       <c r="G35">
-        <v>0.04058167616511697</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.06491016658807869</v>
+      </c>
+      <c r="H35">
+        <v>-0.1150528319680791</v>
+      </c>
+      <c r="I35">
+        <v>-0.09879107608858888</v>
+      </c>
+      <c r="J35">
+        <v>-0.009321396418338566</v>
+      </c>
+      <c r="K35">
+        <v>-0.1518761542001179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.005498692717913713</v>
+        <v>0.01448462632789446</v>
       </c>
       <c r="C36">
-        <v>0.05097390633264657</v>
+        <v>0.04718672309802196</v>
       </c>
       <c r="D36">
-        <v>-0.05566130114812746</v>
+        <v>0.04390329325658627</v>
       </c>
       <c r="E36">
-        <v>-0.007448555134531834</v>
+        <v>-0.005164200437511093</v>
       </c>
       <c r="F36">
-        <v>0.01579769551881604</v>
+        <v>-0.01114001805974925</v>
       </c>
       <c r="G36">
-        <v>0.02734068817065092</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.007353522018452007</v>
+      </c>
+      <c r="H36">
+        <v>-0.07053730219882891</v>
+      </c>
+      <c r="I36">
+        <v>-0.04336775552629277</v>
+      </c>
+      <c r="J36">
+        <v>0.007983301482383078</v>
+      </c>
+      <c r="K36">
+        <v>0.05130416357905469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.03011580758336965</v>
+        <v>0.009773997153717087</v>
       </c>
       <c r="C38">
-        <v>0.06033363386475173</v>
+        <v>0.0594666139114623</v>
       </c>
       <c r="D38">
-        <v>-0.04699806888764788</v>
+        <v>0.03851825781358527</v>
       </c>
       <c r="E38">
-        <v>-0.02414962682696701</v>
+        <v>-0.03471750885801606</v>
       </c>
       <c r="F38">
-        <v>0.003300754685509693</v>
+        <v>-0.01672316989139082</v>
       </c>
       <c r="G38">
-        <v>0.04073168998066848</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.0214420514713515</v>
+      </c>
+      <c r="H38">
+        <v>-0.09617843429534732</v>
+      </c>
+      <c r="I38">
+        <v>-0.0005276307256591288</v>
+      </c>
+      <c r="J38">
+        <v>-0.05152250342035837</v>
+      </c>
+      <c r="K38">
+        <v>-0.02580670434975111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.0001376132161840734</v>
+        <v>0.02318432972641208</v>
       </c>
       <c r="C39">
-        <v>0.1246238259631344</v>
+        <v>0.1334487233422874</v>
       </c>
       <c r="D39">
-        <v>-0.05816083637928153</v>
+        <v>0.05885626663726125</v>
       </c>
       <c r="E39">
-        <v>-0.01582650097395768</v>
+        <v>0.01233878321021929</v>
       </c>
       <c r="F39">
-        <v>0.01220933005641249</v>
+        <v>0.01454967012155199</v>
       </c>
       <c r="G39">
-        <v>0.07206036930804913</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04277486597291611</v>
+      </c>
+      <c r="H39">
+        <v>-0.03718108462320686</v>
+      </c>
+      <c r="I39">
+        <v>-0.007441228238917194</v>
+      </c>
+      <c r="J39">
+        <v>0.1060980448975345</v>
+      </c>
+      <c r="K39">
+        <v>0.03274880832983033</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.002663218978206931</v>
+        <v>0.01314536871812033</v>
       </c>
       <c r="C40">
-        <v>0.02815345094408855</v>
+        <v>0.05498398117458244</v>
       </c>
       <c r="D40">
-        <v>-0.02695173320906439</v>
+        <v>0.04213875307047017</v>
       </c>
       <c r="E40">
-        <v>0.1256767642038729</v>
+        <v>0.02836098754534756</v>
       </c>
       <c r="F40">
-        <v>-0.05654278270841501</v>
+        <v>-0.03073641750419883</v>
       </c>
       <c r="G40">
-        <v>0.1040807904867524</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1563131780083223</v>
+      </c>
+      <c r="H40">
+        <v>0.001596085911687905</v>
+      </c>
+      <c r="I40">
+        <v>-0.04233673183863768</v>
+      </c>
+      <c r="J40">
+        <v>0.003545615846445575</v>
+      </c>
+      <c r="K40">
+        <v>-0.2691613584851</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.0119609641201075</v>
+        <v>0.02189821031423538</v>
       </c>
       <c r="C41">
-        <v>0.02277153756886615</v>
+        <v>0.04765463162314438</v>
       </c>
       <c r="D41">
-        <v>-0.005123670426187224</v>
+        <v>0.01535327884426935</v>
       </c>
       <c r="E41">
-        <v>-0.003080004819993861</v>
+        <v>0.001645315352850567</v>
       </c>
       <c r="F41">
-        <v>0.009552075214859698</v>
+        <v>0.01780564991664163</v>
       </c>
       <c r="G41">
-        <v>-0.03585769116400859</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.003116958136714192</v>
+      </c>
+      <c r="H41">
+        <v>-0.02338965228965707</v>
+      </c>
+      <c r="I41">
+        <v>-0.008569502677286484</v>
+      </c>
+      <c r="J41">
+        <v>-0.02914341458003359</v>
+      </c>
+      <c r="K41">
+        <v>-0.04028120816277783</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.006578330975388797</v>
+        <v>0.01844044155680911</v>
       </c>
       <c r="C43">
-        <v>0.01874601524714561</v>
+        <v>0.04290849299908805</v>
       </c>
       <c r="D43">
-        <v>-0.02207632543675356</v>
+        <v>0.0287350528453988</v>
       </c>
       <c r="E43">
-        <v>-0.005963634134275015</v>
+        <v>-0.01066593620458157</v>
       </c>
       <c r="F43">
-        <v>-0.00514900187263055</v>
+        <v>0.01008427314019734</v>
       </c>
       <c r="G43">
-        <v>-0.003251296668220912</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.00584402410873661</v>
+      </c>
+      <c r="H43">
+        <v>-0.04016181949612717</v>
+      </c>
+      <c r="I43">
+        <v>-0.009761433226509427</v>
+      </c>
+      <c r="J43">
+        <v>0.000889126871563946</v>
+      </c>
+      <c r="K43">
+        <v>-0.03097593939848909</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.01781739791198069</v>
+        <v>0.01568298224124923</v>
       </c>
       <c r="C44">
-        <v>0.1004594189880643</v>
+        <v>0.09917759194703282</v>
       </c>
       <c r="D44">
-        <v>-0.03540337479465525</v>
+        <v>0.05597163839402701</v>
       </c>
       <c r="E44">
-        <v>0.02882035895244234</v>
+        <v>-0.03576814573443938</v>
       </c>
       <c r="F44">
-        <v>-0.0206943743030559</v>
+        <v>-0.05692596753714</v>
       </c>
       <c r="G44">
-        <v>0.0688061382522694</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.05586091121913538</v>
+      </c>
+      <c r="H44">
+        <v>-0.04384996870083255</v>
+      </c>
+      <c r="I44">
+        <v>-0.02000418142576725</v>
+      </c>
+      <c r="J44">
+        <v>0.05140263189462452</v>
+      </c>
+      <c r="K44">
+        <v>0.08266826074653012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.00382900814796027</v>
+        <v>0.004380888818067769</v>
       </c>
       <c r="C46">
-        <v>0.06287903110631965</v>
+        <v>0.06463959668041794</v>
       </c>
       <c r="D46">
-        <v>-0.04940365858502573</v>
+        <v>0.02820092241713093</v>
       </c>
       <c r="E46">
-        <v>0.009543473467027582</v>
+        <v>0.006363121321521844</v>
       </c>
       <c r="F46">
-        <v>0.01061329354142919</v>
+        <v>0.004981763266900973</v>
       </c>
       <c r="G46">
-        <v>0.06568352872252584</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05058706332800064</v>
+      </c>
+      <c r="H46">
+        <v>-0.08445628100725035</v>
+      </c>
+      <c r="I46">
+        <v>-0.04385400269117328</v>
+      </c>
+      <c r="J46">
+        <v>0.003188485496891811</v>
+      </c>
+      <c r="K46">
+        <v>-0.0759224382120061</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.005304596718658892</v>
+        <v>0.02253915807541381</v>
       </c>
       <c r="C47">
-        <v>0.06232029746977711</v>
+        <v>0.07604285652758908</v>
       </c>
       <c r="D47">
-        <v>-0.05590213306062268</v>
+        <v>0.04377828208476178</v>
       </c>
       <c r="E47">
-        <v>-0.03020154699557626</v>
+        <v>0.002962601915424144</v>
       </c>
       <c r="F47">
-        <v>0.05130917854693449</v>
+        <v>0.0164279102797964</v>
       </c>
       <c r="G47">
-        <v>0.0251891432318242</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01389919562588177</v>
+      </c>
+      <c r="H47">
+        <v>-0.06092447389858933</v>
+      </c>
+      <c r="I47">
+        <v>-0.02942764656791556</v>
+      </c>
+      <c r="J47">
+        <v>-0.01600795219319864</v>
+      </c>
+      <c r="K47">
+        <v>-0.0274323395738835</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.004819030111136631</v>
+        <v>0.01883060503360535</v>
       </c>
       <c r="C48">
-        <v>0.05372589888166418</v>
+        <v>0.04843924637627493</v>
       </c>
       <c r="D48">
-        <v>-0.06065447253043186</v>
+        <v>0.05242699277547996</v>
       </c>
       <c r="E48">
-        <v>-0.001649487719850397</v>
+        <v>-0.01079529692715965</v>
       </c>
       <c r="F48">
-        <v>0.008860556470725136</v>
+        <v>-0.005049843238813505</v>
       </c>
       <c r="G48">
-        <v>0.03100538424006128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.01051597440249795</v>
+      </c>
+      <c r="H48">
+        <v>-0.07838358625919711</v>
+      </c>
+      <c r="I48">
+        <v>-0.07064281198917133</v>
+      </c>
+      <c r="J48">
+        <v>0.02450979263797695</v>
+      </c>
+      <c r="K48">
+        <v>0.1059022969357092</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.01523652640165031</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.03803348927112805</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.008455826925280862</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.004564210568637312</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.06161930009920198</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.03191422686371938</v>
+      </c>
+      <c r="H49">
+        <v>0.03226528748320098</v>
+      </c>
+      <c r="I49">
+        <v>0.01492361216231841</v>
+      </c>
+      <c r="J49">
+        <v>0.08287955591648843</v>
+      </c>
+      <c r="K49">
+        <v>0.02901372413283293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.0002720071080815631</v>
+        <v>0.01455593328962764</v>
       </c>
       <c r="C50">
-        <v>0.06539731996330422</v>
+        <v>0.07747993505873285</v>
       </c>
       <c r="D50">
-        <v>-0.03018251372051774</v>
+        <v>0.03065086413886974</v>
       </c>
       <c r="E50">
-        <v>-0.01529568831742105</v>
+        <v>-0.01093792582046877</v>
       </c>
       <c r="F50">
-        <v>-0.002426723462814795</v>
+        <v>-0.01007091069549486</v>
       </c>
       <c r="G50">
-        <v>0.03160348142175027</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.001759462186458778</v>
+      </c>
+      <c r="H50">
+        <v>-0.04247005232178314</v>
+      </c>
+      <c r="I50">
+        <v>-0.0433632523689449</v>
+      </c>
+      <c r="J50">
+        <v>-0.04603246142694487</v>
+      </c>
+      <c r="K50">
+        <v>-0.01213999275381553</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.003583226535727939</v>
+        <v>-0.004473120411691098</v>
       </c>
       <c r="C51">
-        <v>0.06902952988167242</v>
+        <v>0.03578191775400609</v>
       </c>
       <c r="D51">
-        <v>-0.0428111770811773</v>
+        <v>0.0242269257371011</v>
       </c>
       <c r="E51">
-        <v>0.0417444665358198</v>
+        <v>0.006406298420835543</v>
       </c>
       <c r="F51">
-        <v>-0.002291776130136938</v>
+        <v>-0.02598545195764303</v>
       </c>
       <c r="G51">
-        <v>0.007098149531559145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.03515940840311894</v>
+      </c>
+      <c r="H51">
+        <v>-0.09243652830056651</v>
+      </c>
+      <c r="I51">
+        <v>-0.03964458410324008</v>
+      </c>
+      <c r="J51">
+        <v>0.01522069649181063</v>
+      </c>
+      <c r="K51">
+        <v>0.09650514941967193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.02995600858802434</v>
+        <v>0.05867138883142608</v>
       </c>
       <c r="C53">
-        <v>0.1193704360752322</v>
+        <v>0.1327370853263718</v>
       </c>
       <c r="D53">
-        <v>-0.06641051848952687</v>
+        <v>0.05884690194453301</v>
       </c>
       <c r="E53">
-        <v>-0.1222799156484333</v>
+        <v>0.02497172461746579</v>
       </c>
       <c r="F53">
-        <v>0.04569677372441017</v>
+        <v>0.06484584187053935</v>
       </c>
       <c r="G53">
-        <v>-0.08384137172670786</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.08955118791118268</v>
+      </c>
+      <c r="H53">
+        <v>0.03058482491720861</v>
+      </c>
+      <c r="I53">
+        <v>-0.01093951962884923</v>
+      </c>
+      <c r="J53">
+        <v>-0.0243219723144237</v>
+      </c>
+      <c r="K53">
+        <v>-0.0001786058218180752</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.001912239167444</v>
+        <v>0.01611069018908252</v>
       </c>
       <c r="C54">
-        <v>0.06741735986997414</v>
+        <v>0.07149429146785967</v>
       </c>
       <c r="D54">
-        <v>-0.01162176455798274</v>
+        <v>0.01207239738216327</v>
       </c>
       <c r="E54">
-        <v>-0.0202854380561738</v>
+        <v>0.004174008055326456</v>
       </c>
       <c r="F54">
-        <v>0.001072433352201188</v>
+        <v>0.00888338820497625</v>
       </c>
       <c r="G54">
-        <v>0.03227137252106486</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.02483239562069834</v>
+      </c>
+      <c r="H54">
+        <v>-0.03027271685796738</v>
+      </c>
+      <c r="I54">
+        <v>-0.05363832796199779</v>
+      </c>
+      <c r="J54">
+        <v>0.01442959742597267</v>
+      </c>
+      <c r="K54">
+        <v>0.007507014239764871</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.0141536752703028</v>
+        <v>0.03005793324083024</v>
       </c>
       <c r="C55">
-        <v>0.08027192846697141</v>
+        <v>0.08524386435074809</v>
       </c>
       <c r="D55">
-        <v>-0.06288954649340249</v>
+        <v>0.05443260772814444</v>
       </c>
       <c r="E55">
-        <v>-0.0504204369174097</v>
+        <v>0.01201842633049535</v>
       </c>
       <c r="F55">
-        <v>0.03592245418262831</v>
+        <v>0.04456146431378472</v>
       </c>
       <c r="G55">
-        <v>-0.01646152912803353</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03852797001521187</v>
+      </c>
+      <c r="H55">
+        <v>0.01679499544194007</v>
+      </c>
+      <c r="I55">
+        <v>-0.0120969284229074</v>
+      </c>
+      <c r="J55">
+        <v>0.008162433130405693</v>
+      </c>
+      <c r="K55">
+        <v>0.007879197327140614</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.01257012606136793</v>
+        <v>0.04563463209688078</v>
       </c>
       <c r="C56">
-        <v>0.1516011766630629</v>
+        <v>0.1519332105137204</v>
       </c>
       <c r="D56">
-        <v>-0.07292350691714573</v>
+        <v>0.0844320706911586</v>
       </c>
       <c r="E56">
-        <v>-0.09029020471783869</v>
+        <v>0.05956234291030063</v>
       </c>
       <c r="F56">
-        <v>0.06813167744106294</v>
+        <v>0.08254296037662724</v>
       </c>
       <c r="G56">
-        <v>-0.1266327986872968</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1682583142461867</v>
+      </c>
+      <c r="H56">
+        <v>0.03419403384109249</v>
+      </c>
+      <c r="I56">
+        <v>-0.01713020265259154</v>
+      </c>
+      <c r="J56">
+        <v>-0.009457534803085064</v>
+      </c>
+      <c r="K56">
+        <v>0.02266836981231032</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.02404021326978034</v>
+        <v>0.01866913614678136</v>
       </c>
       <c r="C58">
-        <v>0.294822704688227</v>
+        <v>0.1796429754848611</v>
       </c>
       <c r="D58">
-        <v>0.008972909333830277</v>
+        <v>0.04005980817694743</v>
       </c>
       <c r="E58">
-        <v>0.1432306245791361</v>
+        <v>-0.08192872901199581</v>
       </c>
       <c r="F58">
-        <v>-0.2625060427575876</v>
+        <v>-0.3067386520410457</v>
       </c>
       <c r="G58">
-        <v>-0.04704103047028086</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.06356005327121329</v>
+      </c>
+      <c r="H58">
+        <v>-0.105858819885542</v>
+      </c>
+      <c r="I58">
+        <v>0.02488646582261992</v>
+      </c>
+      <c r="J58">
+        <v>-0.07480567812060136</v>
+      </c>
+      <c r="K58">
+        <v>0.3561868991475932</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2880353752591632</v>
+        <v>0.2903159137190783</v>
       </c>
       <c r="C59">
-        <v>0.002359664256162587</v>
+        <v>-0.04618495291067049</v>
       </c>
       <c r="D59">
-        <v>0.00675197286148389</v>
+        <v>-0.006249508607715515</v>
       </c>
       <c r="E59">
-        <v>0.05654827772759315</v>
+        <v>0.01187149546694076</v>
       </c>
       <c r="F59">
-        <v>0.04817008246260235</v>
+        <v>-0.04827177982666291</v>
       </c>
       <c r="G59">
-        <v>-0.01198499272463432</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.002361279608737082</v>
+      </c>
+      <c r="H59">
+        <v>0.01429460119536773</v>
+      </c>
+      <c r="I59">
+        <v>0.0266781346655975</v>
+      </c>
+      <c r="J59">
+        <v>-0.02665685680161392</v>
+      </c>
+      <c r="K59">
+        <v>-0.03259509804709729</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1031548064388623</v>
+        <v>0.1479308445865899</v>
       </c>
       <c r="C60">
-        <v>0.1440924776378208</v>
+        <v>0.1543293368445136</v>
       </c>
       <c r="D60">
-        <v>-0.07938957396792184</v>
+        <v>0.04581145090548516</v>
       </c>
       <c r="E60">
-        <v>-0.09749018319294897</v>
+        <v>0.05432235338939568</v>
       </c>
       <c r="F60">
-        <v>0.1931018052304249</v>
+        <v>0.1209278542193228</v>
       </c>
       <c r="G60">
-        <v>0.2610388210337792</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2261726892514262</v>
+      </c>
+      <c r="H60">
+        <v>0.2398398812990306</v>
+      </c>
+      <c r="I60">
+        <v>0.1071771344214828</v>
+      </c>
+      <c r="J60">
+        <v>0.007721177581642509</v>
+      </c>
+      <c r="K60">
+        <v>0.03716941919536889</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.001136037724534252</v>
+        <v>0.02287054353767503</v>
       </c>
       <c r="C61">
-        <v>0.08208851827579397</v>
+        <v>0.09775262719399995</v>
       </c>
       <c r="D61">
-        <v>-0.06483555468488253</v>
+        <v>0.05496902800313243</v>
       </c>
       <c r="E61">
-        <v>-0.03128849828074753</v>
+        <v>0.009769412280603539</v>
       </c>
       <c r="F61">
-        <v>0.02982833343162594</v>
+        <v>0.02678188545945603</v>
       </c>
       <c r="G61">
-        <v>0.07264160945269098</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02993364738584889</v>
+      </c>
+      <c r="H61">
+        <v>-0.03209488360802557</v>
+      </c>
+      <c r="I61">
+        <v>-0.04845375733203616</v>
+      </c>
+      <c r="J61">
+        <v>0.04044358260997769</v>
+      </c>
+      <c r="K61">
+        <v>-0.009787039623094381</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.003201858064417172</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01336268823869113</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003075964106297351</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.01211063162616794</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01619854600022356</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.01769395992772451</v>
+      </c>
+      <c r="H62">
+        <v>0.0179686112532538</v>
+      </c>
+      <c r="I62">
+        <v>-0.05093978349451173</v>
+      </c>
+      <c r="J62">
+        <v>-0.01593441096554462</v>
+      </c>
+      <c r="K62">
+        <v>-0.00174700187043995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.0001626532952935544</v>
+        <v>0.02614840186768426</v>
       </c>
       <c r="C63">
-        <v>0.05915364567740096</v>
+        <v>0.06472083164528059</v>
       </c>
       <c r="D63">
-        <v>-0.04382192199326028</v>
+        <v>0.05860282522362763</v>
       </c>
       <c r="E63">
-        <v>-0.03524607554911635</v>
+        <v>0.005881333015252437</v>
       </c>
       <c r="F63">
-        <v>0.002395279640275202</v>
+        <v>0.01066919531984174</v>
       </c>
       <c r="G63">
-        <v>0.01996881544653987</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.005618889876209262</v>
+      </c>
+      <c r="H63">
+        <v>-0.03796661112589646</v>
+      </c>
+      <c r="I63">
+        <v>-0.06217042219936557</v>
+      </c>
+      <c r="J63">
+        <v>0.01485749848099227</v>
+      </c>
+      <c r="K63">
+        <v>-0.003751967609973263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.005241907477246443</v>
+        <v>0.01750976781905476</v>
       </c>
       <c r="C64">
-        <v>0.07773777975534524</v>
+        <v>0.09177638889154795</v>
       </c>
       <c r="D64">
-        <v>-0.06779214901922097</v>
+        <v>0.03377506994394706</v>
       </c>
       <c r="E64">
-        <v>-0.006994922602309473</v>
+        <v>-0.03011437481855502</v>
       </c>
       <c r="F64">
-        <v>-0.006480653012541594</v>
+        <v>-0.02294984325198451</v>
       </c>
       <c r="G64">
-        <v>0.06195969270181116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.07022844803844734</v>
+      </c>
+      <c r="H64">
+        <v>-0.003879040535754068</v>
+      </c>
+      <c r="I64">
+        <v>-0.06778285812399787</v>
+      </c>
+      <c r="J64">
+        <v>0.06976825646196895</v>
+      </c>
+      <c r="K64">
+        <v>-0.01480061134446054</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.000673770869500096</v>
+        <v>0.03028381511129825</v>
       </c>
       <c r="C65">
-        <v>0.08734601802687617</v>
+        <v>0.09256482691590895</v>
       </c>
       <c r="D65">
-        <v>-0.03549378638735907</v>
+        <v>0.02174921346385329</v>
       </c>
       <c r="E65">
-        <v>0.01749573739502356</v>
+        <v>-0.01652900671416318</v>
       </c>
       <c r="F65">
-        <v>0.003958034155306991</v>
+        <v>0.0003164796434081035</v>
       </c>
       <c r="G65">
-        <v>0.07063797047126172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.08551194529791926</v>
+      </c>
+      <c r="H65">
+        <v>-0.004368157875310053</v>
+      </c>
+      <c r="I65">
+        <v>0.02367459559862565</v>
+      </c>
+      <c r="J65">
+        <v>0.08136739024558186</v>
+      </c>
+      <c r="K65">
+        <v>0.08845526825772011</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.003603480405895742</v>
+        <v>0.01885671676358862</v>
       </c>
       <c r="C66">
-        <v>0.1691021423367275</v>
+        <v>0.1701998124637832</v>
       </c>
       <c r="D66">
-        <v>-0.05015458805246284</v>
+        <v>0.05098112182219697</v>
       </c>
       <c r="E66">
-        <v>0.02912508036611773</v>
+        <v>0.0166240367049878</v>
       </c>
       <c r="F66">
-        <v>0.02684116426974579</v>
+        <v>-0.004744407579798013</v>
       </c>
       <c r="G66">
-        <v>0.09730511194953816</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03434389019281403</v>
+      </c>
+      <c r="H66">
+        <v>-0.04221422700857257</v>
+      </c>
+      <c r="I66">
+        <v>-0.03417091615008468</v>
+      </c>
+      <c r="J66">
+        <v>0.07956389273740121</v>
+      </c>
+      <c r="K66">
+        <v>0.02403191015582792</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.02902339213439719</v>
+        <v>0.01855025202707938</v>
       </c>
       <c r="C67">
-        <v>0.0349167936796425</v>
+        <v>0.0504391028200644</v>
       </c>
       <c r="D67">
-        <v>-0.0623845625572963</v>
+        <v>0.0400088797053044</v>
       </c>
       <c r="E67">
-        <v>-0.0555946778662772</v>
+        <v>-0.02608212722012376</v>
       </c>
       <c r="F67">
-        <v>0.01607143567539535</v>
+        <v>0.01816078971387</v>
       </c>
       <c r="G67">
-        <v>0.04969856296565531</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.04393126676230082</v>
+      </c>
+      <c r="H67">
+        <v>-0.07201780442925629</v>
+      </c>
+      <c r="I67">
+        <v>0.01356274445094641</v>
+      </c>
+      <c r="J67">
+        <v>-0.04595356827390192</v>
+      </c>
+      <c r="K67">
+        <v>-0.03778316842545297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.293530907592167</v>
+        <v>0.2941310830448628</v>
       </c>
       <c r="C68">
-        <v>-0.02080010033416026</v>
+        <v>-0.07051144971619284</v>
       </c>
       <c r="D68">
-        <v>-0.00562057377846714</v>
+        <v>-0.02348278160364258</v>
       </c>
       <c r="E68">
-        <v>0.02923283169606056</v>
+        <v>-2.716106710792878e-05</v>
       </c>
       <c r="F68">
-        <v>0.009320998361519452</v>
+        <v>-0.04380696793922659</v>
       </c>
       <c r="G68">
-        <v>0.007129212349599623</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01859696190271358</v>
+      </c>
+      <c r="H68">
+        <v>-0.00816397280726365</v>
+      </c>
+      <c r="I68">
+        <v>-0.05651466880764544</v>
+      </c>
+      <c r="J68">
+        <v>-0.04875453365264503</v>
+      </c>
+      <c r="K68">
+        <v>0.005828457864503384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.007116917448940693</v>
+        <v>0.008679447683618571</v>
       </c>
       <c r="C69">
-        <v>0.04751518498216156</v>
+        <v>0.04656037414593363</v>
       </c>
       <c r="D69">
-        <v>-0.05232353143856154</v>
+        <v>0.02508115937628396</v>
       </c>
       <c r="E69">
-        <v>-0.03661560651317089</v>
+        <v>0.005361243302806802</v>
       </c>
       <c r="F69">
-        <v>0.004416651799986305</v>
+        <v>0.01184106895869463</v>
       </c>
       <c r="G69">
-        <v>0.02670870739729606</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02566081296665701</v>
+      </c>
+      <c r="H69">
+        <v>-0.02834344843219271</v>
+      </c>
+      <c r="I69">
+        <v>-0.01181464600692721</v>
+      </c>
+      <c r="J69">
+        <v>-0.02069083860348614</v>
+      </c>
+      <c r="K69">
+        <v>-0.00297772835106247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2887111471516057</v>
+        <v>0.2762877026349089</v>
       </c>
       <c r="C71">
-        <v>-0.03675688647873505</v>
+        <v>-0.07525352768118834</v>
       </c>
       <c r="D71">
-        <v>0.007823130240946071</v>
+        <v>-0.02315904545872381</v>
       </c>
       <c r="E71">
-        <v>0.02305784775399216</v>
+        <v>-0.02319359839302827</v>
       </c>
       <c r="F71">
-        <v>-0.01638896067106738</v>
+        <v>-0.06626847617860245</v>
       </c>
       <c r="G71">
-        <v>-0.00421526818478285</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01684576078401305</v>
+      </c>
+      <c r="H71">
+        <v>-0.04908779328063722</v>
+      </c>
+      <c r="I71">
+        <v>-0.0263575884509928</v>
+      </c>
+      <c r="J71">
+        <v>-0.1147292572338642</v>
+      </c>
+      <c r="K71">
+        <v>0.03511899602660956</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.009213578651079787</v>
+        <v>0.05371173582779223</v>
       </c>
       <c r="C72">
-        <v>0.1504974485287194</v>
+        <v>0.1408636352679052</v>
       </c>
       <c r="D72">
-        <v>-0.07002544060673781</v>
+        <v>0.0495087867484628</v>
       </c>
       <c r="E72">
-        <v>-0.0146895545117667</v>
+        <v>0.02095788205963785</v>
       </c>
       <c r="F72">
-        <v>-0.04167404789626791</v>
+        <v>0.029532292729598</v>
       </c>
       <c r="G72">
-        <v>0.1337900517331125</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.008809527700948354</v>
+      </c>
+      <c r="H72">
+        <v>-0.005679286421249718</v>
+      </c>
+      <c r="I72">
+        <v>-0.06548621526178307</v>
+      </c>
+      <c r="J72">
+        <v>0.0944172121752412</v>
+      </c>
+      <c r="K72">
+        <v>0.06558043015629238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.06433208948539457</v>
+        <v>0.1508603451287949</v>
       </c>
       <c r="C73">
-        <v>0.1053392500261796</v>
+        <v>0.1962462597776185</v>
       </c>
       <c r="D73">
-        <v>-0.115297443287311</v>
+        <v>0.08643519658832567</v>
       </c>
       <c r="E73">
-        <v>-0.1852416522490598</v>
+        <v>0.04068657331857812</v>
       </c>
       <c r="F73">
-        <v>0.2122785209430597</v>
+        <v>0.2406133244612288</v>
       </c>
       <c r="G73">
-        <v>0.3223277186110114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3483004556944137</v>
+      </c>
+      <c r="H73">
+        <v>0.2814242230325623</v>
+      </c>
+      <c r="I73">
+        <v>0.1751108074958435</v>
+      </c>
+      <c r="J73">
+        <v>-0.10822549877248</v>
+      </c>
+      <c r="K73">
+        <v>0.08413439637890031</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.00770332545333129</v>
+        <v>0.03791552764962017</v>
       </c>
       <c r="C74">
-        <v>0.08259488961697285</v>
+        <v>0.09990462417296128</v>
       </c>
       <c r="D74">
-        <v>-0.07059259191641531</v>
+        <v>0.04754534822928703</v>
       </c>
       <c r="E74">
-        <v>-0.07248519198315194</v>
+        <v>-0.006452205805718832</v>
       </c>
       <c r="F74">
-        <v>0.03954282996556176</v>
+        <v>0.03267187463665894</v>
       </c>
       <c r="G74">
-        <v>-0.05066124862579483</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.04528181676478907</v>
+      </c>
+      <c r="H74">
+        <v>0.01322353414290909</v>
+      </c>
+      <c r="I74">
+        <v>-0.03561563418753682</v>
+      </c>
+      <c r="J74">
+        <v>-0.002337833465916744</v>
+      </c>
+      <c r="K74">
+        <v>0.0482462403775798</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.03828581517173747</v>
+        <v>0.06126493493739518</v>
       </c>
       <c r="C75">
-        <v>0.139651738312343</v>
+        <v>0.1655307515035268</v>
       </c>
       <c r="D75">
-        <v>-0.08047205451925654</v>
+        <v>0.08595328744618279</v>
       </c>
       <c r="E75">
-        <v>-0.1457704189862941</v>
+        <v>-0.02125845435522943</v>
       </c>
       <c r="F75">
-        <v>0.02382271639843676</v>
+        <v>0.1071952141743273</v>
       </c>
       <c r="G75">
-        <v>-0.1877791790800389</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.2198925286811703</v>
+      </c>
+      <c r="H75">
+        <v>0.008088331117933993</v>
+      </c>
+      <c r="I75">
+        <v>-0.02826053739901544</v>
+      </c>
+      <c r="J75">
+        <v>-0.1186674985681037</v>
+      </c>
+      <c r="K75">
+        <v>-0.08750768224281452</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.01453134715116132</v>
+        <v>0.04266126125133809</v>
       </c>
       <c r="C76">
-        <v>0.1034578367679043</v>
+        <v>0.1234429765025081</v>
       </c>
       <c r="D76">
-        <v>-0.06381949409067719</v>
+        <v>0.07505107741506979</v>
       </c>
       <c r="E76">
-        <v>-0.08244694500376243</v>
+        <v>0.02086576335195455</v>
       </c>
       <c r="F76">
-        <v>0.0564937782936698</v>
+        <v>0.07829410865796745</v>
       </c>
       <c r="G76">
-        <v>-0.05170058025826385</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.08345013065888865</v>
+      </c>
+      <c r="H76">
+        <v>0.02765845932953257</v>
+      </c>
+      <c r="I76">
+        <v>-0.03511548093974867</v>
+      </c>
+      <c r="J76">
+        <v>0.0305110359746967</v>
+      </c>
+      <c r="K76">
+        <v>-0.0161260109652284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.09303482319532574</v>
+        <v>0.05165217286329111</v>
       </c>
       <c r="C77">
-        <v>0.3782275347397903</v>
+        <v>0.4030831633466048</v>
       </c>
       <c r="D77">
-        <v>0.8370228138311516</v>
+        <v>-0.8985415878129595</v>
       </c>
       <c r="E77">
-        <v>-0.2726663057018024</v>
+        <v>-0.01443681304935154</v>
       </c>
       <c r="F77">
-        <v>0.120534640932251</v>
+        <v>0.08342428081447069</v>
       </c>
       <c r="G77">
-        <v>0.009291561100495775</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.03584523317022265</v>
+      </c>
+      <c r="H77">
+        <v>-0.02269188319335485</v>
+      </c>
+      <c r="I77">
+        <v>-0.0649869240699789</v>
+      </c>
+      <c r="J77">
+        <v>-0.007956641064689563</v>
+      </c>
+      <c r="K77">
+        <v>-0.006154975664487243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.02488743207746364</v>
+        <v>0.03637882017915296</v>
       </c>
       <c r="C78">
-        <v>0.1304287962875961</v>
+        <v>0.1141830592715736</v>
       </c>
       <c r="D78">
-        <v>-0.1887740807630665</v>
+        <v>0.0943751819820421</v>
       </c>
       <c r="E78">
-        <v>0.08844396056912558</v>
+        <v>0.04031141599414669</v>
       </c>
       <c r="F78">
-        <v>0.1309069894829068</v>
+        <v>0.002697523169790509</v>
       </c>
       <c r="G78">
-        <v>-0.1361739462962362</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.1087923757651051</v>
+      </c>
+      <c r="H78">
+        <v>-0.09587640619348235</v>
+      </c>
+      <c r="I78">
+        <v>0.02328848114089137</v>
+      </c>
+      <c r="J78">
+        <v>0.05961191409456965</v>
+      </c>
+      <c r="K78">
+        <v>0.4037915517167278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02647881598583994</v>
+        <v>0.05721639600591527</v>
       </c>
       <c r="C79">
-        <v>0.1611515788163141</v>
+        <v>0.1457848251408299</v>
       </c>
       <c r="D79">
-        <v>-0.1191000362280252</v>
+        <v>0.07084365306222251</v>
       </c>
       <c r="E79">
-        <v>-0.1033162186564355</v>
+        <v>0.0260657650584349</v>
       </c>
       <c r="F79">
-        <v>0.06247670493158924</v>
+        <v>0.06221220602349618</v>
       </c>
       <c r="G79">
-        <v>-0.2573622799364418</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.2368380725346076</v>
+      </c>
+      <c r="H79">
+        <v>-0.01179789573239809</v>
+      </c>
+      <c r="I79">
+        <v>-0.04350894354401623</v>
+      </c>
+      <c r="J79">
+        <v>-0.06886371062099873</v>
+      </c>
+      <c r="K79">
+        <v>0.05650009932042993</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.00740385542636507</v>
+        <v>0.01929759127350955</v>
       </c>
       <c r="C80">
-        <v>0.05527382832323803</v>
+        <v>0.04449157737358874</v>
       </c>
       <c r="D80">
-        <v>-0.05296492683264827</v>
+        <v>0.03794572927607049</v>
       </c>
       <c r="E80">
-        <v>0.0390338756028285</v>
+        <v>0.04294349368420746</v>
       </c>
       <c r="F80">
-        <v>0.01249209356073859</v>
+        <v>-0.0364813442243337</v>
       </c>
       <c r="G80">
-        <v>0.008587562369140121</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.07531983736031962</v>
+      </c>
+      <c r="H80">
+        <v>0.00339934430577887</v>
+      </c>
+      <c r="I80">
+        <v>0.06383572633508218</v>
+      </c>
+      <c r="J80">
+        <v>-0.027155833846323</v>
+      </c>
+      <c r="K80">
+        <v>-0.05285718165497328</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.004319949346107177</v>
+        <v>0.01646516545365731</v>
       </c>
       <c r="C81">
-        <v>0.06950231303793621</v>
+        <v>0.09757974915935375</v>
       </c>
       <c r="D81">
-        <v>-0.07296373422268726</v>
+        <v>0.05755647606851731</v>
       </c>
       <c r="E81">
-        <v>-0.07372437348463665</v>
+        <v>0.02053387811180524</v>
       </c>
       <c r="F81">
-        <v>0.04706592815092128</v>
+        <v>0.03610006651579189</v>
       </c>
       <c r="G81">
-        <v>-0.08460905611639807</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1003807787095151</v>
+      </c>
+      <c r="H81">
+        <v>-0.04584599217315759</v>
+      </c>
+      <c r="I81">
+        <v>-0.03983491435143107</v>
+      </c>
+      <c r="J81">
+        <v>-0.05131563523129763</v>
+      </c>
+      <c r="K81">
+        <v>-0.00937385878369793</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.01509060720954654</v>
+        <v>0.04374597776010837</v>
       </c>
       <c r="C82">
-        <v>0.07512383832326948</v>
+        <v>0.1036293243828386</v>
       </c>
       <c r="D82">
-        <v>-0.06969759351464785</v>
+        <v>0.06536700893267099</v>
       </c>
       <c r="E82">
-        <v>-0.09197759313106023</v>
+        <v>0.02732235760570135</v>
       </c>
       <c r="F82">
-        <v>0.04559029545230956</v>
+        <v>0.0674560783237719</v>
       </c>
       <c r="G82">
-        <v>-0.04635505154526714</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.08312832397826389</v>
+      </c>
+      <c r="H82">
+        <v>-0.01149301319230911</v>
+      </c>
+      <c r="I82">
+        <v>-0.01573835476152577</v>
+      </c>
+      <c r="J82">
+        <v>0.004688527300876241</v>
+      </c>
+      <c r="K82">
+        <v>0.01428437791176158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.003708287337671859</v>
+        <v>-0.0004319686648859509</v>
       </c>
       <c r="C83">
-        <v>0.03000609209969727</v>
+        <v>-0.02350023142252163</v>
       </c>
       <c r="D83">
-        <v>0.1230982379415888</v>
+        <v>-0.05622287185418148</v>
       </c>
       <c r="E83">
-        <v>0.5984208621414675</v>
+        <v>0.935126442033924</v>
       </c>
       <c r="F83">
-        <v>0.6811722488708035</v>
+        <v>-0.2319387402506779</v>
       </c>
       <c r="G83">
-        <v>-0.162122850044585</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.03296742719163835</v>
+      </c>
+      <c r="H83">
+        <v>0.05293442688059661</v>
+      </c>
+      <c r="I83">
+        <v>0.06111281787775678</v>
+      </c>
+      <c r="J83">
+        <v>0.07859421033251857</v>
+      </c>
+      <c r="K83">
+        <v>0.0301624452754002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.00684685794873045</v>
+        <v>0.001815345016770187</v>
       </c>
       <c r="C84">
-        <v>0.08276741828077684</v>
+        <v>0.05176515620597923</v>
       </c>
       <c r="D84">
-        <v>-0.0361181068602871</v>
+        <v>0.06487390324139726</v>
       </c>
       <c r="E84">
-        <v>0.06793268869817536</v>
+        <v>-0.03548976580184589</v>
       </c>
       <c r="F84">
-        <v>-0.1514542548788371</v>
+        <v>-0.07988391797269639</v>
       </c>
       <c r="G84">
-        <v>0.001667805824650851</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.02250420419328218</v>
+      </c>
+      <c r="H84">
+        <v>-0.08171518315653908</v>
+      </c>
+      <c r="I84">
+        <v>0.005183998716005269</v>
+      </c>
+      <c r="J84">
+        <v>0.1912745055495386</v>
+      </c>
+      <c r="K84">
+        <v>-0.06183252457142333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.001147416554610071</v>
+        <v>0.02863361290753973</v>
       </c>
       <c r="C85">
-        <v>0.1126442672882791</v>
+        <v>0.1163041307579347</v>
       </c>
       <c r="D85">
-        <v>-0.07855665758446474</v>
+        <v>0.08397136083515741</v>
       </c>
       <c r="E85">
-        <v>-0.1024802080605064</v>
+        <v>0.033536879194143</v>
       </c>
       <c r="F85">
-        <v>0.06082440081535544</v>
+        <v>0.1182228293651771</v>
       </c>
       <c r="G85">
-        <v>-0.2057690601036261</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.2279621180449048</v>
+      </c>
+      <c r="H85">
+        <v>0.03472971489085745</v>
+      </c>
+      <c r="I85">
+        <v>-0.05063742915343161</v>
+      </c>
+      <c r="J85">
+        <v>-0.0646158958681725</v>
+      </c>
+      <c r="K85">
+        <v>-0.02069917042230157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.02191427568962381</v>
+        <v>0.0155861803383615</v>
       </c>
       <c r="C86">
-        <v>0.07824644961414991</v>
+        <v>0.08092017210126573</v>
       </c>
       <c r="D86">
-        <v>0.00572843429162402</v>
+        <v>0.03072008499870908</v>
       </c>
       <c r="E86">
-        <v>0.01107179083472469</v>
+        <v>-0.01172127370148064</v>
       </c>
       <c r="F86">
-        <v>-0.02238903063206254</v>
+        <v>-0.07287336817304135</v>
       </c>
       <c r="G86">
-        <v>0.0677908382180029</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.04274923118653138</v>
+      </c>
+      <c r="H86">
+        <v>-0.08008919163812814</v>
+      </c>
+      <c r="I86">
+        <v>0.1343682320016274</v>
+      </c>
+      <c r="J86">
+        <v>-0.1370076264898892</v>
+      </c>
+      <c r="K86">
+        <v>0.1708746659518386</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.02328396592898622</v>
+        <v>0.02673840019019795</v>
       </c>
       <c r="C87">
-        <v>0.1511605341050153</v>
+        <v>0.1210342057019221</v>
       </c>
       <c r="D87">
-        <v>-0.0413483661203006</v>
+        <v>0.02294380669602384</v>
       </c>
       <c r="E87">
-        <v>0.09025635124923057</v>
+        <v>-0.004354582234774503</v>
       </c>
       <c r="F87">
-        <v>-0.04868532977262874</v>
+        <v>-0.05536108077483907</v>
       </c>
       <c r="G87">
-        <v>0.004410822355651242</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.003234031571069357</v>
+      </c>
+      <c r="H87">
+        <v>-0.01473634083611462</v>
+      </c>
+      <c r="I87">
+        <v>-0.04658582985970886</v>
+      </c>
+      <c r="J87">
+        <v>0.09055312767919409</v>
+      </c>
+      <c r="K87">
+        <v>0.05169753312361249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.006808416492822616</v>
+        <v>0.04006953513834387</v>
       </c>
       <c r="C88">
-        <v>0.03541523364833127</v>
+        <v>0.06042047315527616</v>
       </c>
       <c r="D88">
-        <v>-0.03760025477276092</v>
+        <v>0.04159598318183046</v>
       </c>
       <c r="E88">
-        <v>-0.05281672677023136</v>
+        <v>-0.004021324071780928</v>
       </c>
       <c r="F88">
-        <v>0.004991517619580767</v>
+        <v>0.01987988202960263</v>
       </c>
       <c r="G88">
-        <v>0.01329011161510161</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02119608240114861</v>
+      </c>
+      <c r="H88">
+        <v>0.01767093162993432</v>
+      </c>
+      <c r="I88">
+        <v>-0.01188717566728241</v>
+      </c>
+      <c r="J88">
+        <v>-0.004984182353340739</v>
+      </c>
+      <c r="K88">
+        <v>-0.06138435875160336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.4013090045651277</v>
+        <v>0.3929039373827406</v>
       </c>
       <c r="C89">
-        <v>-0.06685884644753305</v>
+        <v>-0.1153546110072101</v>
       </c>
       <c r="D89">
-        <v>-0.07363095345022391</v>
+        <v>-0.03668745958709947</v>
       </c>
       <c r="E89">
-        <v>0.05564667081083949</v>
+        <v>-0.04453745770575562</v>
       </c>
       <c r="F89">
-        <v>-0.09593391171433609</v>
+        <v>-0.03842834760766507</v>
       </c>
       <c r="G89">
-        <v>-0.01803190117986427</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.03286192145512185</v>
+      </c>
+      <c r="H89">
+        <v>0.003266481445942829</v>
+      </c>
+      <c r="I89">
+        <v>-0.03063591869308492</v>
+      </c>
+      <c r="J89">
+        <v>0.7166505000699755</v>
+      </c>
+      <c r="K89">
+        <v>0.001138588661251272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3077923218790636</v>
+        <v>0.3158880297027534</v>
       </c>
       <c r="C90">
-        <v>-0.0192353733397737</v>
+        <v>-0.07599304939118873</v>
       </c>
       <c r="D90">
-        <v>-0.004493152853567001</v>
+        <v>-0.01911758498267641</v>
       </c>
       <c r="E90">
-        <v>0.07467363027961241</v>
+        <v>0.002690969921030627</v>
       </c>
       <c r="F90">
-        <v>0.04678438455925293</v>
+        <v>-0.03790316243613867</v>
       </c>
       <c r="G90">
-        <v>0.03100324672763194</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.002351028650523345</v>
+      </c>
+      <c r="H90">
+        <v>-0.02098486869125468</v>
+      </c>
+      <c r="I90">
+        <v>0.001053494063634941</v>
+      </c>
+      <c r="J90">
+        <v>-0.07964366059543265</v>
+      </c>
+      <c r="K90">
+        <v>0.0002804248563256081</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02306907174631534</v>
+        <v>0.05384160097577443</v>
       </c>
       <c r="C91">
-        <v>0.07947029494404807</v>
+        <v>0.0791879701845639</v>
       </c>
       <c r="D91">
-        <v>-0.0633063836855477</v>
+        <v>0.05364892437313137</v>
       </c>
       <c r="E91">
-        <v>-0.05634870034832485</v>
+        <v>0.04921551047632289</v>
       </c>
       <c r="F91">
-        <v>0.05317383844668146</v>
+        <v>0.04071268155895635</v>
       </c>
       <c r="G91">
-        <v>-0.0765871599174316</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.08776771912637296</v>
+      </c>
+      <c r="H91">
+        <v>0.04137746413556606</v>
+      </c>
+      <c r="I91">
+        <v>-0.02111851326811136</v>
+      </c>
+      <c r="J91">
+        <v>-0.01537611802665989</v>
+      </c>
+      <c r="K91">
+        <v>-0.07118080921726005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.383213112911612</v>
+        <v>0.3510062815839672</v>
       </c>
       <c r="C92">
-        <v>-0.05854829773883694</v>
+        <v>-0.1216795301631363</v>
       </c>
       <c r="D92">
-        <v>0.01641413770846883</v>
+        <v>-0.0540367788406362</v>
       </c>
       <c r="E92">
-        <v>-0.01788551039139547</v>
+        <v>-0.05018004661768019</v>
       </c>
       <c r="F92">
-        <v>-0.1205337362217071</v>
+        <v>-0.04728591083764919</v>
       </c>
       <c r="G92">
-        <v>-0.01240074252438294</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.01291157237783669</v>
+      </c>
+      <c r="H92">
+        <v>-0.05353145631103692</v>
+      </c>
+      <c r="I92">
+        <v>-0.04499721423081329</v>
+      </c>
+      <c r="J92">
+        <v>-0.1485490158989903</v>
+      </c>
+      <c r="K92">
+        <v>-0.005595646728644032</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3067750338307687</v>
+        <v>0.3098579389720262</v>
       </c>
       <c r="C93">
-        <v>-0.07050462523763226</v>
+        <v>-0.1152981875860394</v>
       </c>
       <c r="D93">
-        <v>-0.01264743220981439</v>
+        <v>-0.009512064854115482</v>
       </c>
       <c r="E93">
-        <v>0.06626494493074402</v>
+        <v>-0.01134033268434484</v>
       </c>
       <c r="F93">
-        <v>-0.03776115114980702</v>
+        <v>-0.04253921804770448</v>
       </c>
       <c r="G93">
-        <v>-0.003853644508104476</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03318507940242685</v>
+      </c>
+      <c r="H93">
+        <v>-0.04349195399589852</v>
+      </c>
+      <c r="I93">
+        <v>0.01728936627279275</v>
+      </c>
+      <c r="J93">
+        <v>-0.1042626618731865</v>
+      </c>
+      <c r="K93">
+        <v>0.01004861639857198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.03401979519642489</v>
+        <v>0.0793293386899039</v>
       </c>
       <c r="C94">
-        <v>0.1898534678257327</v>
+        <v>0.1628652147901097</v>
       </c>
       <c r="D94">
-        <v>-0.1401753431086682</v>
+        <v>0.1138613924393547</v>
       </c>
       <c r="E94">
-        <v>-0.1715660833748193</v>
+        <v>0.04854895954212583</v>
       </c>
       <c r="F94">
-        <v>0.01586164281364636</v>
+        <v>0.1347077304468225</v>
       </c>
       <c r="G94">
-        <v>-0.6000865646718859</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.5678812437354811</v>
+      </c>
+      <c r="H94">
+        <v>0.1481805270210145</v>
+      </c>
+      <c r="I94">
+        <v>0.08568536538932064</v>
+      </c>
+      <c r="J94">
+        <v>0.04353172348952656</v>
+      </c>
+      <c r="K94">
+        <v>-0.2910719923900588</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02296236015545548</v>
+        <v>0.04098777973458932</v>
       </c>
       <c r="C95">
-        <v>0.09869508216586266</v>
+        <v>0.1277607232691469</v>
       </c>
       <c r="D95">
-        <v>-0.04598962244692373</v>
+        <v>0.06546526691350651</v>
       </c>
       <c r="E95">
-        <v>-0.04044067853104393</v>
+        <v>-0.01251933612949031</v>
       </c>
       <c r="F95">
-        <v>0.09392532406071763</v>
+        <v>0.07537669846990018</v>
       </c>
       <c r="G95">
-        <v>0.0635326897403892</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.04156199871969637</v>
+      </c>
+      <c r="H95">
+        <v>-0.03288593525486316</v>
+      </c>
+      <c r="I95">
+        <v>-0.06316729520542469</v>
+      </c>
+      <c r="J95">
+        <v>0.1837033278186476</v>
+      </c>
+      <c r="K95">
+        <v>-0.2796068118225675</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.0001739550376706867</v>
+        <v>0.0158032951138918</v>
       </c>
       <c r="C97">
-        <v>-5.813033083548276e-05</v>
+        <v>0.01590358860304312</v>
       </c>
       <c r="D97">
-        <v>0.0003918823235293918</v>
+        <v>-0.006901506520221397</v>
       </c>
       <c r="E97">
-        <v>-0.004922161134596431</v>
+        <v>-0.02701836410141444</v>
       </c>
       <c r="F97">
-        <v>-0.001822117936269665</v>
+        <v>0.008321983319169265</v>
       </c>
       <c r="G97">
-        <v>0.003734792479763467</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.02472331499282714</v>
+      </c>
+      <c r="H97">
+        <v>-0.08648451432405062</v>
+      </c>
+      <c r="I97">
+        <v>0.08724022311977613</v>
+      </c>
+      <c r="J97">
+        <v>0.02323188654809192</v>
+      </c>
+      <c r="K97">
+        <v>-0.04254869191926285</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.07609328296536438</v>
+        <v>0.1340884568791183</v>
       </c>
       <c r="C98">
-        <v>0.1362007553443137</v>
+        <v>0.1617314825257387</v>
       </c>
       <c r="D98">
-        <v>-0.138119964385975</v>
+        <v>0.09229370757128927</v>
       </c>
       <c r="E98">
-        <v>-0.1196121669855004</v>
+        <v>0.06367577561542709</v>
       </c>
       <c r="F98">
-        <v>0.1544991084430274</v>
+        <v>0.2292683769339316</v>
       </c>
       <c r="G98">
-        <v>0.1983282513334685</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.2742724450029255</v>
+      </c>
+      <c r="H98">
+        <v>0.3181901982549616</v>
+      </c>
+      <c r="I98">
+        <v>0.1776854554223724</v>
+      </c>
+      <c r="J98">
+        <v>-0.1197972451578232</v>
+      </c>
+      <c r="K98">
+        <v>0.0463933426127691</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02169102063774132</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.05114961854385706</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.01732950633401208</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.005827370390464474</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.1315137569087648</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.01679182945151427</v>
+      </c>
+      <c r="H99">
+        <v>-0.5011351797577275</v>
+      </c>
+      <c r="I99">
+        <v>0.7963912624479483</v>
+      </c>
+      <c r="J99">
+        <v>0.07298280124232961</v>
+      </c>
+      <c r="K99">
+        <v>-0.0668972992368165</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.007644660972256091</v>
+        <v>0.01553488383383983</v>
       </c>
       <c r="C101">
-        <v>0.07660251399409954</v>
+        <v>0.08177360178003788</v>
       </c>
       <c r="D101">
-        <v>-0.04870997290913941</v>
+        <v>0.04961119204191149</v>
       </c>
       <c r="E101">
-        <v>0.007044000491016364</v>
+        <v>0.04571469656016245</v>
       </c>
       <c r="F101">
-        <v>0.03659076251726035</v>
+        <v>-0.01180917619022834</v>
       </c>
       <c r="G101">
-        <v>0.1136987223287569</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1524094639083558</v>
+      </c>
+      <c r="H101">
+        <v>-0.2264450973834183</v>
+      </c>
+      <c r="I101">
+        <v>-0.1562736446195039</v>
+      </c>
+      <c r="J101">
+        <v>-0.005831238861900369</v>
+      </c>
+      <c r="K101">
+        <v>-0.1952753996034275</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.003040419313095637</v>
+        <v>0.001553503081883118</v>
       </c>
       <c r="C102">
-        <v>0.0187827749204315</v>
+        <v>0.007522724280337682</v>
       </c>
       <c r="D102">
-        <v>0.0003119472167695528</v>
+        <v>-0.001884114866892437</v>
       </c>
       <c r="E102">
-        <v>-0.02087238849150245</v>
+        <v>0.003048447804168719</v>
       </c>
       <c r="F102">
-        <v>0.01977226102716233</v>
+        <v>0.005293352060291896</v>
       </c>
       <c r="G102">
-        <v>-0.00806033530842884</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.002694345882837816</v>
+      </c>
+      <c r="H102">
+        <v>-0.00180524783131603</v>
+      </c>
+      <c r="I102">
+        <v>-0.005291187829784123</v>
+      </c>
+      <c r="J102">
+        <v>0.01039277854824616</v>
+      </c>
+      <c r="K102">
+        <v>0.004772452631285372</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
